--- a/uploads/exampleexcle.xlsx
+++ b/uploads/exampleexcle.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\JIMS HONEY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\convertexcel\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1FCA86-9285-4192-81A2-6937FC621F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61CAB3F0-B5DE-4E73-BF9C-98325D856C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{10CC6F09-8748-48DB-860E-F7ADA78A1E87}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="69">
   <si>
     <t>Product</t>
   </si>
@@ -54,12 +54,6 @@
     <t>Silver Price</t>
   </si>
   <si>
-    <t>Ruby Price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COGS </t>
-  </si>
-  <si>
     <t>Current Stocks</t>
   </si>
   <si>
@@ -117,26 +111,134 @@
     <t>KHAKI</t>
   </si>
   <si>
-    <t>JHW 35 (1Q:100)</t>
-  </si>
-  <si>
-    <t>l01</t>
-  </si>
-  <si>
-    <t>l02</t>
-  </si>
-  <si>
-    <t>l03</t>
-  </si>
-  <si>
-    <t>l04</t>
+    <t>Sale12 Price</t>
+  </si>
+  <si>
+    <t>Sale50 Price</t>
+  </si>
+  <si>
+    <t>Sale150 Price</t>
+  </si>
+  <si>
+    <t>Purchase Price</t>
+  </si>
+  <si>
+    <t>AKRILIK JAM TANGAN</t>
+  </si>
+  <si>
+    <t>PACKAGING</t>
+  </si>
+  <si>
+    <t>1Tier</t>
+  </si>
+  <si>
+    <t>2021-07-17 21:31:09</t>
+  </si>
+  <si>
+    <t>2Tier</t>
+  </si>
+  <si>
+    <t>3Tier</t>
+  </si>
+  <si>
+    <t>4x4x2</t>
+  </si>
+  <si>
+    <t>4x4x4</t>
+  </si>
+  <si>
+    <t>4x4x6</t>
+  </si>
+  <si>
+    <t>RING</t>
+  </si>
+  <si>
+    <t>ANJANI FLATSHOES JHX-103 SILVER-RUBY</t>
+  </si>
+  <si>
+    <t>HEELS</t>
+  </si>
+  <si>
+    <t>Black-35</t>
+  </si>
+  <si>
+    <t>2025-03-10 16:18:03</t>
+  </si>
+  <si>
+    <t>Black-36</t>
+  </si>
+  <si>
+    <t>Black-37</t>
+  </si>
+  <si>
+    <t>Black-38</t>
+  </si>
+  <si>
+    <t>Black-39</t>
+  </si>
+  <si>
+    <t>Black-40</t>
+  </si>
+  <si>
+    <t>Brown-35</t>
+  </si>
+  <si>
+    <t>Brown-36</t>
+  </si>
+  <si>
+    <t>Brown-37</t>
+  </si>
+  <si>
+    <t>Brown-38</t>
+  </si>
+  <si>
+    <t>Brown-39</t>
+  </si>
+  <si>
+    <t>Brown-40</t>
+  </si>
+  <si>
+    <t>Pink-35</t>
+  </si>
+  <si>
+    <t>Pink-36</t>
+  </si>
+  <si>
+    <t>Pink-37</t>
+  </si>
+  <si>
+    <t>Pink-38</t>
+  </si>
+  <si>
+    <t>Pink-39</t>
+  </si>
+  <si>
+    <t>Pink-40</t>
+  </si>
+  <si>
+    <t>White-35</t>
+  </si>
+  <si>
+    <t>White-36</t>
+  </si>
+  <si>
+    <t>White-37</t>
+  </si>
+  <si>
+    <t>White-38</t>
+  </si>
+  <si>
+    <t>White-39</t>
+  </si>
+  <si>
+    <t>White-40</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,12 +251,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -177,18 +273,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,89 +590,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61D82FAA-23D0-4640-908E-B2B4CD122617}">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8.90625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.08984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.08984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
         <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
       </c>
       <c r="F2">
         <v>118000</v>
@@ -603,31 +697,30 @@
         <v>165000</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K14" si="0">F2-5000</f>
-        <v>113000</v>
-      </c>
-      <c r="L2">
-        <v>1203</v>
-      </c>
-      <c r="N2" t="s">
+        <v>165000</v>
+      </c>
+      <c r="N2">
+        <v>1109</v>
+      </c>
+      <c r="P2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
         <v>19</v>
-      </c>
-      <c r="O2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
       </c>
       <c r="F3">
         <v>118000</v>
@@ -645,31 +738,30 @@
         <v>165000</v>
       </c>
       <c r="K3">
-        <f t="shared" si="0"/>
-        <v>113000</v>
-      </c>
-      <c r="L3">
-        <v>375</v>
-      </c>
-      <c r="N3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O3" t="s">
+        <v>165000</v>
+      </c>
+      <c r="N3">
+        <v>291</v>
+      </c>
+      <c r="P3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
       </c>
       <c r="F4">
         <v>118000</v>
@@ -687,31 +779,30 @@
         <v>165000</v>
       </c>
       <c r="K4">
-        <f t="shared" si="0"/>
-        <v>113000</v>
-      </c>
-      <c r="L4">
-        <v>624</v>
-      </c>
-      <c r="N4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>15</v>
+        <v>165000</v>
+      </c>
+      <c r="N4">
+        <v>577</v>
+      </c>
+      <c r="P4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F5">
         <v>118000</v>
@@ -729,31 +820,30 @@
         <v>165000</v>
       </c>
       <c r="K5">
-        <f t="shared" si="0"/>
-        <v>113000</v>
-      </c>
-      <c r="L5">
-        <v>172</v>
-      </c>
-      <c r="N5" t="s">
-        <v>19</v>
-      </c>
-      <c r="O5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>15</v>
+        <v>165000</v>
+      </c>
+      <c r="N5">
+        <v>133</v>
+      </c>
+      <c r="P5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F6">
         <v>118000</v>
@@ -771,28 +861,27 @@
         <v>165000</v>
       </c>
       <c r="K6">
-        <f t="shared" si="0"/>
-        <v>113000</v>
-      </c>
-      <c r="N6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>15</v>
+        <v>165000</v>
+      </c>
+      <c r="P6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F7">
         <v>118000</v>
@@ -810,28 +899,27 @@
         <v>165000</v>
       </c>
       <c r="K7">
-        <f t="shared" si="0"/>
-        <v>113000</v>
-      </c>
-      <c r="N7" t="s">
-        <v>19</v>
-      </c>
-      <c r="O7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>15</v>
+        <v>165000</v>
+      </c>
+      <c r="P7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F8">
         <v>118000</v>
@@ -849,31 +937,30 @@
         <v>165000</v>
       </c>
       <c r="K8">
-        <f t="shared" si="0"/>
-        <v>113000</v>
-      </c>
-      <c r="L8">
-        <v>206</v>
-      </c>
-      <c r="N8" t="s">
-        <v>19</v>
-      </c>
-      <c r="O8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>27</v>
+        <v>165000</v>
+      </c>
+      <c r="N8">
+        <v>205</v>
+      </c>
+      <c r="P8" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>25</v>
       </c>
       <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
         <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
       </c>
       <c r="F9">
         <v>105000</v>
@@ -891,31 +978,30 @@
         <v>130000</v>
       </c>
       <c r="K9">
-        <f t="shared" si="0"/>
-        <v>100000</v>
-      </c>
-      <c r="L9">
-        <v>5701</v>
-      </c>
-      <c r="N9" t="s">
-        <v>19</v>
-      </c>
-      <c r="O9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>27</v>
+        <v>130000</v>
+      </c>
+      <c r="N9">
+        <v>4519</v>
+      </c>
+      <c r="P9" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F10">
         <v>105000</v>
@@ -933,31 +1019,30 @@
         <v>130000</v>
       </c>
       <c r="K10">
-        <f t="shared" si="0"/>
-        <v>100000</v>
-      </c>
-      <c r="L10">
-        <v>1248</v>
-      </c>
-      <c r="N10" t="s">
-        <v>19</v>
-      </c>
-      <c r="O10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>27</v>
+        <v>130000</v>
+      </c>
+      <c r="N10">
+        <v>1113</v>
+      </c>
+      <c r="P10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F11">
         <v>105000</v>
@@ -975,31 +1060,30 @@
         <v>130000</v>
       </c>
       <c r="K11">
-        <f t="shared" si="0"/>
-        <v>100000</v>
-      </c>
-      <c r="L11">
-        <v>2831</v>
-      </c>
-      <c r="N11" t="s">
-        <v>19</v>
-      </c>
-      <c r="O11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>27</v>
+        <v>130000</v>
+      </c>
+      <c r="N11">
+        <v>2827</v>
+      </c>
+      <c r="P11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F12">
         <v>105000</v>
@@ -1017,31 +1101,30 @@
         <v>130000</v>
       </c>
       <c r="K12">
-        <f t="shared" si="0"/>
-        <v>100000</v>
-      </c>
-      <c r="L12">
-        <v>1851</v>
-      </c>
-      <c r="N12" t="s">
-        <v>19</v>
-      </c>
-      <c r="O12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
+        <v>130000</v>
+      </c>
+      <c r="N12">
+        <v>1807</v>
+      </c>
+      <c r="P12" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
         <v>27</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s">
-        <v>29</v>
       </c>
       <c r="F13">
         <v>105000</v>
@@ -1059,31 +1142,30 @@
         <v>130000</v>
       </c>
       <c r="K13">
-        <f t="shared" si="0"/>
-        <v>100000</v>
-      </c>
-      <c r="L13">
-        <v>2675</v>
-      </c>
-      <c r="N13" t="s">
+        <v>130000</v>
+      </c>
+      <c r="N13">
+        <v>2582</v>
+      </c>
+      <c r="P13" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
         <v>19</v>
-      </c>
-      <c r="O13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
       </c>
       <c r="F14">
         <v>105000</v>
@@ -1101,185 +1183,1284 @@
         <v>130000</v>
       </c>
       <c r="K14">
-        <f t="shared" si="0"/>
-        <v>100000</v>
-      </c>
-      <c r="L14">
-        <v>3189</v>
-      </c>
-      <c r="N14" t="s">
-        <v>19</v>
-      </c>
-      <c r="O14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+        <v>130000</v>
+      </c>
+      <c r="N14">
+        <v>3054</v>
+      </c>
+      <c r="P14" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="E15">
+        <v>50000</v>
       </c>
       <c r="F15">
-        <v>48000</v>
+        <v>50000</v>
       </c>
       <c r="G15">
-        <v>51000</v>
+        <v>50000</v>
       </c>
       <c r="H15">
-        <v>58000</v>
+        <v>50000</v>
       </c>
       <c r="I15">
-        <v>65000</v>
+        <v>50000</v>
       </c>
       <c r="J15">
-        <v>72000</v>
+        <v>50000</v>
       </c>
       <c r="K15">
-        <f t="shared" ref="K15" si="1">F15-5000</f>
-        <v>43000</v>
+        <v>50000</v>
       </c>
       <c r="L15">
-        <v>10</v>
-      </c>
-      <c r="N15" t="s">
-        <v>19</v>
-      </c>
-      <c r="O15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+        <v>50000</v>
+      </c>
+      <c r="P15" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16">
+        <v>120000</v>
+      </c>
+      <c r="F16">
+        <v>120000</v>
+      </c>
+      <c r="G16">
+        <v>120000</v>
+      </c>
+      <c r="H16">
+        <v>120000</v>
+      </c>
+      <c r="I16">
+        <v>120000</v>
+      </c>
+      <c r="J16">
+        <v>120000</v>
+      </c>
+      <c r="K16">
+        <v>120000</v>
+      </c>
+      <c r="L16">
+        <v>120000</v>
+      </c>
+      <c r="P16" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>32</v>
       </c>
-      <c r="F16">
-        <v>48000</v>
-      </c>
-      <c r="G16">
-        <v>51000</v>
-      </c>
-      <c r="H16">
-        <v>58000</v>
-      </c>
-      <c r="I16">
-        <v>65000</v>
-      </c>
-      <c r="J16">
-        <v>72000</v>
-      </c>
-      <c r="K16">
-        <f t="shared" ref="K16:K18" si="2">F16-5000</f>
-        <v>43000</v>
-      </c>
-      <c r="L16">
-        <v>10</v>
-      </c>
-      <c r="N16" t="s">
-        <v>19</v>
-      </c>
-      <c r="O16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17">
+        <v>200000</v>
+      </c>
+      <c r="F17">
+        <v>200000</v>
+      </c>
+      <c r="G17">
+        <v>200000</v>
+      </c>
+      <c r="H17">
+        <v>200000</v>
+      </c>
+      <c r="I17">
+        <v>200000</v>
+      </c>
+      <c r="J17">
+        <v>200000</v>
+      </c>
+      <c r="K17">
+        <v>200000</v>
+      </c>
+      <c r="L17">
+        <v>200000</v>
+      </c>
+      <c r="P17" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
         <v>33</v>
       </c>
-      <c r="F17">
-        <v>48000</v>
-      </c>
-      <c r="G17">
-        <v>51000</v>
-      </c>
-      <c r="H17">
-        <v>58000</v>
-      </c>
-      <c r="I17">
-        <v>65000</v>
-      </c>
-      <c r="J17">
-        <v>72000</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="2"/>
-        <v>43000</v>
-      </c>
-      <c r="L17">
-        <v>10</v>
-      </c>
-      <c r="N17" t="s">
-        <v>19</v>
-      </c>
-      <c r="O17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>38</v>
+      </c>
+      <c r="E18">
+        <v>20000</v>
       </c>
       <c r="F18">
-        <v>48000</v>
+        <v>20000</v>
       </c>
       <c r="G18">
-        <v>51000</v>
+        <v>20000</v>
       </c>
       <c r="H18">
-        <v>58000</v>
+        <v>20000</v>
       </c>
       <c r="I18">
-        <v>65000</v>
+        <v>20000</v>
       </c>
       <c r="J18">
-        <v>72000</v>
+        <v>20000</v>
       </c>
       <c r="K18">
-        <f t="shared" si="2"/>
-        <v>43000</v>
+        <v>20000</v>
       </c>
       <c r="L18">
-        <v>10</v>
-      </c>
-      <c r="N18" t="s">
-        <v>19</v>
-      </c>
-      <c r="O18" t="s">
-        <v>28</v>
+        <v>20000</v>
+      </c>
+      <c r="P18" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19">
+        <v>20000</v>
+      </c>
+      <c r="F19">
+        <v>20000</v>
+      </c>
+      <c r="G19">
+        <v>20000</v>
+      </c>
+      <c r="H19">
+        <v>20000</v>
+      </c>
+      <c r="I19">
+        <v>20000</v>
+      </c>
+      <c r="J19">
+        <v>20000</v>
+      </c>
+      <c r="K19">
+        <v>20000</v>
+      </c>
+      <c r="L19">
+        <v>20000</v>
+      </c>
+      <c r="P19" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20">
+        <v>20000</v>
+      </c>
+      <c r="F20">
+        <v>20000</v>
+      </c>
+      <c r="G20">
+        <v>20000</v>
+      </c>
+      <c r="H20">
+        <v>20000</v>
+      </c>
+      <c r="I20">
+        <v>20000</v>
+      </c>
+      <c r="J20">
+        <v>20000</v>
+      </c>
+      <c r="K20">
+        <v>20000</v>
+      </c>
+      <c r="L20">
+        <v>20000</v>
+      </c>
+      <c r="P20" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21">
+        <v>3000</v>
+      </c>
+      <c r="F21">
+        <v>3000</v>
+      </c>
+      <c r="G21">
+        <v>3000</v>
+      </c>
+      <c r="H21">
+        <v>3000</v>
+      </c>
+      <c r="I21">
+        <v>3000</v>
+      </c>
+      <c r="J21">
+        <v>3000</v>
+      </c>
+      <c r="K21">
+        <v>3000</v>
+      </c>
+      <c r="L21">
+        <v>3000</v>
+      </c>
+      <c r="P21" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22">
+        <v>111000</v>
+      </c>
+      <c r="G22">
+        <v>120000</v>
+      </c>
+      <c r="H22">
+        <v>130000</v>
+      </c>
+      <c r="I22">
+        <v>145000</v>
+      </c>
+      <c r="J22">
+        <v>155000</v>
+      </c>
+      <c r="K22">
+        <v>155000</v>
+      </c>
+      <c r="N22">
+        <v>8</v>
+      </c>
+      <c r="P22" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23">
+        <v>111000</v>
+      </c>
+      <c r="G23">
+        <v>120000</v>
+      </c>
+      <c r="H23">
+        <v>130000</v>
+      </c>
+      <c r="I23">
+        <v>145000</v>
+      </c>
+      <c r="J23">
+        <v>155000</v>
+      </c>
+      <c r="K23">
+        <v>155000</v>
+      </c>
+      <c r="N23">
+        <v>14</v>
+      </c>
+      <c r="P23" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24">
+        <v>111000</v>
+      </c>
+      <c r="G24">
+        <v>120000</v>
+      </c>
+      <c r="H24">
+        <v>130000</v>
+      </c>
+      <c r="I24">
+        <v>145000</v>
+      </c>
+      <c r="J24">
+        <v>155000</v>
+      </c>
+      <c r="K24">
+        <v>155000</v>
+      </c>
+      <c r="N24">
+        <v>11</v>
+      </c>
+      <c r="P24" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25">
+        <v>111000</v>
+      </c>
+      <c r="G25">
+        <v>120000</v>
+      </c>
+      <c r="H25">
+        <v>130000</v>
+      </c>
+      <c r="I25">
+        <v>145000</v>
+      </c>
+      <c r="J25">
+        <v>155000</v>
+      </c>
+      <c r="K25">
+        <v>155000</v>
+      </c>
+      <c r="N25">
+        <v>4</v>
+      </c>
+      <c r="P25" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26">
+        <v>111000</v>
+      </c>
+      <c r="G26">
+        <v>120000</v>
+      </c>
+      <c r="H26">
+        <v>130000</v>
+      </c>
+      <c r="I26">
+        <v>145000</v>
+      </c>
+      <c r="J26">
+        <v>155000</v>
+      </c>
+      <c r="K26">
+        <v>155000</v>
+      </c>
+      <c r="P26" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27">
+        <v>111000</v>
+      </c>
+      <c r="G27">
+        <v>120000</v>
+      </c>
+      <c r="H27">
+        <v>130000</v>
+      </c>
+      <c r="I27">
+        <v>145000</v>
+      </c>
+      <c r="J27">
+        <v>155000</v>
+      </c>
+      <c r="K27">
+        <v>155000</v>
+      </c>
+      <c r="P27" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28">
+        <v>111000</v>
+      </c>
+      <c r="G28">
+        <v>120000</v>
+      </c>
+      <c r="H28">
+        <v>130000</v>
+      </c>
+      <c r="I28">
+        <v>145000</v>
+      </c>
+      <c r="J28">
+        <v>155000</v>
+      </c>
+      <c r="K28">
+        <v>155000</v>
+      </c>
+      <c r="N28">
+        <v>12</v>
+      </c>
+      <c r="P28" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29">
+        <v>111000</v>
+      </c>
+      <c r="G29">
+        <v>120000</v>
+      </c>
+      <c r="H29">
+        <v>130000</v>
+      </c>
+      <c r="I29">
+        <v>145000</v>
+      </c>
+      <c r="J29">
+        <v>155000</v>
+      </c>
+      <c r="K29">
+        <v>155000</v>
+      </c>
+      <c r="N29">
+        <v>21</v>
+      </c>
+      <c r="P29" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30">
+        <v>111000</v>
+      </c>
+      <c r="G30">
+        <v>120000</v>
+      </c>
+      <c r="H30">
+        <v>130000</v>
+      </c>
+      <c r="I30">
+        <v>145000</v>
+      </c>
+      <c r="J30">
+        <v>155000</v>
+      </c>
+      <c r="K30">
+        <v>155000</v>
+      </c>
+      <c r="N30">
+        <v>20</v>
+      </c>
+      <c r="P30" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31">
+        <v>111000</v>
+      </c>
+      <c r="G31">
+        <v>120000</v>
+      </c>
+      <c r="H31">
+        <v>130000</v>
+      </c>
+      <c r="I31">
+        <v>145000</v>
+      </c>
+      <c r="J31">
+        <v>155000</v>
+      </c>
+      <c r="K31">
+        <v>155000</v>
+      </c>
+      <c r="N31">
+        <v>4</v>
+      </c>
+      <c r="P31" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" t="s">
+        <v>55</v>
+      </c>
+      <c r="F32">
+        <v>111000</v>
+      </c>
+      <c r="G32">
+        <v>120000</v>
+      </c>
+      <c r="H32">
+        <v>130000</v>
+      </c>
+      <c r="I32">
+        <v>145000</v>
+      </c>
+      <c r="J32">
+        <v>155000</v>
+      </c>
+      <c r="K32">
+        <v>155000</v>
+      </c>
+      <c r="P32" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33">
+        <v>111000</v>
+      </c>
+      <c r="G33">
+        <v>120000</v>
+      </c>
+      <c r="H33">
+        <v>130000</v>
+      </c>
+      <c r="I33">
+        <v>145000</v>
+      </c>
+      <c r="J33">
+        <v>155000</v>
+      </c>
+      <c r="K33">
+        <v>155000</v>
+      </c>
+      <c r="P33" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34">
+        <v>111000</v>
+      </c>
+      <c r="G34">
+        <v>120000</v>
+      </c>
+      <c r="H34">
+        <v>130000</v>
+      </c>
+      <c r="I34">
+        <v>145000</v>
+      </c>
+      <c r="J34">
+        <v>155000</v>
+      </c>
+      <c r="K34">
+        <v>155000</v>
+      </c>
+      <c r="N34">
+        <v>12</v>
+      </c>
+      <c r="P34" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" t="s">
+        <v>58</v>
+      </c>
+      <c r="F35">
+        <v>111000</v>
+      </c>
+      <c r="G35">
+        <v>120000</v>
+      </c>
+      <c r="H35">
+        <v>130000</v>
+      </c>
+      <c r="I35">
+        <v>145000</v>
+      </c>
+      <c r="J35">
+        <v>155000</v>
+      </c>
+      <c r="K35">
+        <v>155000</v>
+      </c>
+      <c r="N35">
+        <v>20</v>
+      </c>
+      <c r="P35" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" t="s">
+        <v>59</v>
+      </c>
+      <c r="F36">
+        <v>111000</v>
+      </c>
+      <c r="G36">
+        <v>120000</v>
+      </c>
+      <c r="H36">
+        <v>130000</v>
+      </c>
+      <c r="I36">
+        <v>145000</v>
+      </c>
+      <c r="J36">
+        <v>155000</v>
+      </c>
+      <c r="K36">
+        <v>155000</v>
+      </c>
+      <c r="N36">
+        <v>17</v>
+      </c>
+      <c r="P36" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" t="s">
+        <v>60</v>
+      </c>
+      <c r="F37">
+        <v>111000</v>
+      </c>
+      <c r="G37">
+        <v>120000</v>
+      </c>
+      <c r="H37">
+        <v>130000</v>
+      </c>
+      <c r="I37">
+        <v>145000</v>
+      </c>
+      <c r="J37">
+        <v>155000</v>
+      </c>
+      <c r="K37">
+        <v>155000</v>
+      </c>
+      <c r="N37">
+        <v>5</v>
+      </c>
+      <c r="P37" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" t="s">
+        <v>61</v>
+      </c>
+      <c r="F38">
+        <v>111000</v>
+      </c>
+      <c r="G38">
+        <v>120000</v>
+      </c>
+      <c r="H38">
+        <v>130000</v>
+      </c>
+      <c r="I38">
+        <v>145000</v>
+      </c>
+      <c r="J38">
+        <v>155000</v>
+      </c>
+      <c r="K38">
+        <v>155000</v>
+      </c>
+      <c r="P38" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" t="s">
+        <v>62</v>
+      </c>
+      <c r="F39">
+        <v>111000</v>
+      </c>
+      <c r="G39">
+        <v>120000</v>
+      </c>
+      <c r="H39">
+        <v>130000</v>
+      </c>
+      <c r="I39">
+        <v>145000</v>
+      </c>
+      <c r="J39">
+        <v>155000</v>
+      </c>
+      <c r="K39">
+        <v>155000</v>
+      </c>
+      <c r="P39" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" t="s">
+        <v>63</v>
+      </c>
+      <c r="F40">
+        <v>111000</v>
+      </c>
+      <c r="G40">
+        <v>120000</v>
+      </c>
+      <c r="H40">
+        <v>130000</v>
+      </c>
+      <c r="I40">
+        <v>145000</v>
+      </c>
+      <c r="J40">
+        <v>155000</v>
+      </c>
+      <c r="K40">
+        <v>155000</v>
+      </c>
+      <c r="N40">
+        <v>13</v>
+      </c>
+      <c r="P40" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" t="s">
+        <v>64</v>
+      </c>
+      <c r="F41">
+        <v>111000</v>
+      </c>
+      <c r="G41">
+        <v>120000</v>
+      </c>
+      <c r="H41">
+        <v>130000</v>
+      </c>
+      <c r="I41">
+        <v>145000</v>
+      </c>
+      <c r="J41">
+        <v>155000</v>
+      </c>
+      <c r="K41">
+        <v>155000</v>
+      </c>
+      <c r="N41">
+        <v>18</v>
+      </c>
+      <c r="P41" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" t="s">
+        <v>65</v>
+      </c>
+      <c r="F42">
+        <v>111000</v>
+      </c>
+      <c r="G42">
+        <v>120000</v>
+      </c>
+      <c r="H42">
+        <v>130000</v>
+      </c>
+      <c r="I42">
+        <v>145000</v>
+      </c>
+      <c r="J42">
+        <v>155000</v>
+      </c>
+      <c r="K42">
+        <v>155000</v>
+      </c>
+      <c r="N42">
+        <v>18</v>
+      </c>
+      <c r="P42" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" t="s">
+        <v>66</v>
+      </c>
+      <c r="F43">
+        <v>111000</v>
+      </c>
+      <c r="G43">
+        <v>120000</v>
+      </c>
+      <c r="H43">
+        <v>130000</v>
+      </c>
+      <c r="I43">
+        <v>145000</v>
+      </c>
+      <c r="J43">
+        <v>155000</v>
+      </c>
+      <c r="K43">
+        <v>155000</v>
+      </c>
+      <c r="N43">
+        <v>4</v>
+      </c>
+      <c r="P43" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" t="s">
+        <v>67</v>
+      </c>
+      <c r="F44">
+        <v>111000</v>
+      </c>
+      <c r="G44">
+        <v>120000</v>
+      </c>
+      <c r="H44">
+        <v>130000</v>
+      </c>
+      <c r="I44">
+        <v>145000</v>
+      </c>
+      <c r="J44">
+        <v>155000</v>
+      </c>
+      <c r="K44">
+        <v>155000</v>
+      </c>
+      <c r="P44" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" t="s">
+        <v>68</v>
+      </c>
+      <c r="F45">
+        <v>111000</v>
+      </c>
+      <c r="G45">
+        <v>120000</v>
+      </c>
+      <c r="H45">
+        <v>130000</v>
+      </c>
+      <c r="I45">
+        <v>145000</v>
+      </c>
+      <c r="J45">
+        <v>155000</v>
+      </c>
+      <c r="K45">
+        <v>155000</v>
+      </c>
+      <c r="P45" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
